--- a/biology/Zoologie/Colibri_scintillant/Colibri_scintillant.xlsx
+++ b/biology/Zoologie/Colibri_scintillant/Colibri_scintillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selasphorus scintilla
 Le Colibri scintillant (Selasphorus scintilla) est une espèce de colibris (famille des Trochilidae).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure environ 6,5 cm de longueur. Il présente un dimorphisme sexuel. Le mâle a la gorge rouge orange flamboyant, la poitrine blanche, le ventre roussâtre tacheté de vert et la queue rousse rayée de noir. La femelle a la gorge chamois tacheté et la queue rousse marquée d'une bande sub-terminale noire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure environ 6,5 cm de longueur. Il présente un dimorphisme sexuel. Le mâle a la gorge rouge orange flamboyant, la poitrine blanche, le ventre roussâtre tacheté de vert et la queue rousse rayée de noir. La femelle a la gorge chamois tacheté et la queue rousse marquée d'une bande sub-terminale noire.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans la cordillère de Talamanca.
 </t>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce habite dans les forêts tropicales et subtropicales humides de montagne mais aussi les anciennes forêts fortement dégradées, les lisières, les plantations et les fourrés surtout entre 900  et   2 100 m d'altitude[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce habite dans les forêts tropicales et subtropicales humides de montagne mais aussi les anciennes forêts fortement dégradées, les lisières, les plantations et les fourrés surtout entre 900  et   2 100 m d'altitude.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau consomme le nectar facilement accessible de certaines fleurs et entre ainsi souvent en compétition avec des insectes[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau consomme le nectar facilement accessible de certaines fleurs et entre ainsi souvent en compétition avec des insectes.
 </t>
         </is>
       </c>
